--- a/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -319,6 +319,144 @@
   </si>
   <si>
     <t>SCRIPT/D27P11A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh?[K] I don\'t seem to see [CS:N]Grovyle[CR]\nanywhere…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] is...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Lapras[CR]...[K]well, [CS:N]Grovyle[CR] is…</t>
+  </si>
+  <si>
+    <t>85, 89, 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]N-n-no...[K]it can\'t be…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Well...[K]I see...[K] I find it hard to\naccept, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For now...[K]we must go onward…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что случилось?[K] Я не вижу с вами\n[CS:N]Гровайла[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Где [CS:N]Гровайл[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Лапрас[CR]...[K] [CS:N]Гровайл[CR], он...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Что-ж...[K] Понятно...[K] Мне трудно\nэто принять, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сейчас...[K] Мы должны продолжить\nнаш путь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Н-н-нет...[K] Не может быть...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï òìôœéìïòû?[K] Ÿ îå âéçô ò âàíé\n[CS:N]Ãñïâàêìà[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãäå [CS:N]Ãñïâàêì[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ìàðñàò[CR]...[K] [CS:N]Ãñïâàêì[CR], ïî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Î-î-îåó...[K] Îå íïçåó áúóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Œóï-ç...[K] Ðïîÿóîï...[K] Íîå óñôäîï\nüóï ðñéîÿóû, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåêœàò...[K] Íú äïìçîú ðñïäïìçéóû\nîàš ðôóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Гровайл[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ãñïâàêì[CR]?..</t>
+  </si>
+  <si>
+    <t>SCRIPT/D27P11A/um2501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m glad you were able to halt\n[CS:P]Temporal Tower[CR]\'s destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And [hero] even returned\nsafely...[K] I\'m delighted to hear it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finally, the world is at peace.[K]\nYour exploration team is back in action too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please tell me whenever you\nwant to go to the [CS:P]Hidden Land[CR] again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад, что вам удалось\nостановить разрушение [CS:P]Темпоральной Башни[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ты снова захочешь\nотправиться в [CS:P]Сокрытые Земли[CR], только\nскажи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä, œóï âàí ôäàìïòû\nïòóàîïâéóû ñàèñôšåîéå [CS:P]Óåíðïñàìûîïê Áàšîé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óú òîïâà èàöïœåšû\nïóðñàâéóûòÿ â [CS:P]Òïëñúóúå Èåíìé[CR], óïìûëï\nòëàçé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero] здесь...[K]\nОтрадно снова тебя видеть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero] èäåòû...[K]\nÏóñàäîï òîïâà óåáÿ âéäåóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наконец-то в мир вернулся покой.[K]\nИ твоя команда исследователей снова в\nделе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàëïîåø-óï â íéñ âåñîôìòÿ ðïëïê.[K]\nÉ óâïÿ ëïíàîäà éòòìåäïâàóåìåê òîïâà â\näåìå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You graduated from the guild![K]\nCongratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sure that will open you to\neven more as an exploration team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consider me a big supporter![K]\nBest of luck!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы выпустились из гильдии![K]\nПоздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уверен, что выпуск откроет для\nвас гораздо больше возможностей!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я горячо поддерживаю вас![K]\nЖелаю удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âúðôòóéìéòû éè ãéìûäéé![K]\nÐïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôâåñåî, œóï âúðôòë ïóëñïåó äìÿ\nâàò ãïñàèäï áïìûšå âïèíïçîïòóåê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ãïñÿœï ðïääåñçéâàý âàò![K]\nÇåìàý ôäàœé!</t>
+  </si>
+  <si>
+    <t>135-397</t>
   </si>
 </sst>
 </file>
@@ -394,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -415,6 +553,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,6 +977,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B9" s="4">
         <v>135</v>
       </c>
@@ -849,7 +993,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B10" s="4">
         <v>139</v>
       </c>
@@ -863,7 +1010,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B11" s="4">
         <v>147</v>
       </c>
@@ -1171,7 +1321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>376</v>
       </c>
@@ -1185,7 +1335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>380</v>
       </c>
@@ -1199,7 +1349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>386</v>
       </c>
@@ -1213,18 +1363,266 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6">
         <v>397</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="4">
+        <v>65</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4">
+        <v>69</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>78</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>102</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>105</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>108</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
+        <v>112</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>569</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>572</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>575</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6">
+        <v>578</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="4">
+        <v>539</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>542</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>545</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -457,6 +457,96 @@
   </si>
   <si>
     <t>135-397</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0302.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us0303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/D01P11A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/D01P11A/us0402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2001.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2002.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2003.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The whole plot to destroy\n[CS:P]Temporal Tower[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and the plot to expand the\ndistortion of space itself…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was all put into motion by\nthat wicked Pokémon [CS:N]Darkrai[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I must add my voice to all those\nalready pleading for your help, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please stop [CS:N]Darkrai[CR]\'s\nawful scheme!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bring lasting peace to the world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Весь план по уничтожению\n[CS:P]Темпоральной Башни[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...и план исказить\nпространство...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё это делал ужасный Покемон\n[CS:N]Даркрай[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вынужден сказать всё то же\nсамое, что говорят другие, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, не дайте планам [CS:N]Даркрая[CR]\nсбыться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Принесите в мир покой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåòû ðìàî ðï ôîéœóïçåîéý\n[CS:P]Óåíðïñàìûîïê Áàšîé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...é ðìàî éòëàèéóû\nðñïòóñàîòóâï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ üóï äåìàì ôçàòîúê Ðïëåíïî\n[CS:N]Äàñëñàê[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âúîôçäåî òëàèàóû âòæ óï çå\nòàíïå, œóï ãïâïñÿó äñôãéå, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, îå äàêóå ðìàîàí [CS:N]Äàñëñàÿ[CR]\nòáúóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéîåòéóå â íéñ ðïëïê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2202.ssb</t>
   </si>
 </sst>
 </file>
@@ -838,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1117,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="B12" s="4">
         <v>150</v>
       </c>
@@ -1041,7 +1134,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1151,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1168,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1083,7 +1185,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1097,7 +1202,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="B17" s="4">
         <v>238</v>
       </c>
@@ -1111,7 +1219,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1236,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1139,7 +1253,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B20" s="4">
         <v>282</v>
       </c>
@@ -1153,7 +1270,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1167,7 +1287,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
@@ -1181,7 +1304,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
@@ -1195,7 +1321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>337</v>
       </c>
@@ -1209,7 +1335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>340</v>
       </c>
@@ -1223,7 +1349,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>344</v>
       </c>
@@ -1237,7 +1363,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>350</v>
       </c>
@@ -1251,7 +1377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>356</v>
       </c>
@@ -1265,7 +1391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>359</v>
       </c>
@@ -1279,7 +1405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>367</v>
       </c>
@@ -1293,7 +1419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>370</v>
       </c>
@@ -1307,7 +1433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>373</v>
       </c>
@@ -1612,17 +1738,105 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6">
         <v>545</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="4">
+        <v>494</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>497</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>500</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>503</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>506</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>509</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Лапрас.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="207">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -547,6 +547,99 @@
   </si>
   <si>
     <t>SCRIPT/D01P11A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh...[K]I see…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Darkrai[CR] was shattered along\nwith the dimensional hole…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He has likely lost his memory\nand been banished to some unknown place…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That could be a very good thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the world, certainly![K]\nBut maybe for [CS:N]Darkrai[CR] too…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well...that is over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peace has returned...[K]and it\'s\nyour team\'s doing, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you very much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох...[K] Понятно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даркрай[CR] разлетелся на части\nвместе с пространственной дырой...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее всего он потерял память\nи очутился в незнакомом месте...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно, это наилучший исход...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для всего мира, конечно же![K]\nВпрочем и для Даркрая тоже...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну... Всё кончено.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покой вернулся...[K] И всё\nблагодаря твоей команде, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам огромнейшее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö...[K] Ðïîÿóîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàñëñàê[CR] ñàèìåóåìòÿ îà œàòóé\nâíåòóå ò ðñïòóñàîòóâåîîïê äúñïê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå âòåãï ïî ðïóåñÿì ðàíÿóû\né ïœôóéìòÿ â îåèîàëïíïí íåòóå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï, üóï îàéìôœšéê éòöïä...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äìÿ âòåãï íéñà, ëïîåœîï çå![K]\nÂðñïœåí é äìÿ Äàñëñàÿ óïçå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô... Âòæ ëïîœåîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëïê âåñîôìòÿ...[K] É âòæ\náìàãïäàñÿ óâïåê ëïíàîäå, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîåêšåå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/us2301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh?[K] Someone was nearly\novercome by the waves at this beach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s terrible! I\'m sorry...[K]\nI never knew that happened…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Кто-то чуть не утонул на\nпляже?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой ужас! Мне жаль...[K] Я не\nзнал, что такое происходило...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Ëóï-óï œôóû îå ôóïîôì îà\nðìÿçå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ôçàò! Íîå çàìû...[K] Ÿ îå\nèîàì, œóï óàëïå ðñïéòöïäéìï...</t>
   </si>
 </sst>
 </file>
@@ -928,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1826,17 +1919,165 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6">
         <v>509</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="7" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="4">
+        <v>449</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>452</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>455</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>458</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>461</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>464</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>467</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6">
+        <v>470</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="4">
+        <v>422</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
+        <v>425</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
